--- a/revision/ebank-Realease-Notes-20220721-16h.xlsx
+++ b/revision/ebank-Realease-Notes-20220721-16h.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CTY\Seatech\PVCombank\10.Deployment\yaml\pvcb-ebank\revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A74B7ED-1392-4938-BA37-0D523C0FC7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Release note" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
   <si>
     <t>THÔNG TIN PHIÊN BẢN CẬP NHẬT</t>
   </si>
@@ -103,9 +102,6 @@
     <t>Trạng thái</t>
   </si>
   <si>
-    <t>database</t>
-  </si>
-  <si>
     <t>metadata</t>
   </si>
   <si>
@@ -118,34 +114,28 @@
     <t>X</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Phí</t>
-  </si>
-  <si>
-    <t>Sửa package trên database tính sai thời gian phí</t>
-  </si>
-  <si>
-    <t>Corp</t>
-  </si>
-  <si>
-    <t>Thẻ</t>
-  </si>
-  <si>
-    <t>Sửa lỗi không hạch toán thẻ</t>
-  </si>
-  <si>
-    <t>quay.io/dtduong/ebank-corp:1.0.16</t>
-  </si>
-  <si>
-    <t>quay.io/dtduong/ebank-admin:1.0.12</t>
+    <t>Thực hiện CD theo file yaml cung cấp</t>
+  </si>
+  <si>
+    <t>ebank-corp:1.0.16</t>
+  </si>
+  <si>
+    <t>Rollback gói deploy 1.0.14</t>
+  </si>
+  <si>
+    <t>ebank-admin:1.0.12</t>
+  </si>
+  <si>
+    <t>Rollback gói deploy 1.0.10</t>
+  </si>
+  <si>
+    <t>Corp/Admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -173,7 +163,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +174,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD6DCE5"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -288,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -310,61 +306,70 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -709,520 +714,524 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:H14"/>
+      <selection activeCell="D10" sqref="D10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="34.125" customWidth="1"/>
-    <col min="4" max="4" width="39.75" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" customWidth="1"/>
+    <col min="3" max="3" width="34.09765625" customWidth="1"/>
+    <col min="4" max="4" width="39.69921875" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" customWidth="1"/>
+    <col min="7" max="7" width="13.69921875" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="24"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="17"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="25"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="18">
+      <c r="C10" s="9"/>
+      <c r="D10" s="15">
         <v>20220721</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="26"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="36.6" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.6" customHeight="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="15">
+        <v>20220721</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" ht="22.2" customHeight="1">
+      <c r="A17" s="14"/>
+      <c r="B17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="33.6" customHeight="1">
+      <c r="A18" s="14"/>
+      <c r="B18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
-      <c r="A14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="14"/>
+      <c r="B19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1">
+      <c r="A20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="10" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" customHeight="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="19" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="10" t="s">
+      <c r="E21" s="19"/>
+      <c r="F21" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1">
+      <c r="A22" s="14"/>
+      <c r="B22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="18">
-        <v>20220721</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="1:8" ht="22.15" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="15" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="14"/>
+      <c r="B23" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" ht="33.6" customHeight="1">
-      <c r="A18" s="26"/>
-      <c r="B18" s="10" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" ht="43.2" customHeight="1">
+      <c r="A24" s="14"/>
+      <c r="B24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="26"/>
-      <c r="B19" s="10" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="14"/>
+      <c r="B25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1">
-      <c r="A20" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="15" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1">
+      <c r="A26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A21" s="26"/>
-      <c r="B21" s="10" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.6" customHeight="1">
+      <c r="A27" s="14"/>
+      <c r="B27" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="19" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="19" t="s">
+      <c r="E27" s="19"/>
+      <c r="F27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1">
+      <c r="A28" s="14"/>
+      <c r="B28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="14"/>
+      <c r="B29" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="14"/>
+      <c r="B30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="14"/>
+      <c r="B31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1">
+      <c r="A32" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.6" customHeight="1">
+      <c r="A33" s="14"/>
+      <c r="B33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="20"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1">
-      <c r="A22" s="26"/>
-      <c r="B22" s="10" t="s">
+      <c r="G33" s="20"/>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1">
+      <c r="A34" s="14"/>
+      <c r="B34" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="26"/>
-      <c r="B23" s="15" t="s">
+      <c r="C34" s="9"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="14"/>
+      <c r="B35" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" ht="43.15" customHeight="1">
-      <c r="A24" s="26"/>
-      <c r="B24" s="10" t="s">
+      <c r="C35" s="17"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" ht="31.95" customHeight="1">
+      <c r="A36" s="14"/>
+      <c r="B36" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="26"/>
-      <c r="B25" s="10" t="s">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="14"/>
+      <c r="B37" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1">
-      <c r="A26" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A27" s="26"/>
-      <c r="B27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1">
-      <c r="A28" s="26"/>
-      <c r="B28" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="26"/>
-      <c r="B29" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="26"/>
-      <c r="B30" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="26"/>
-      <c r="B31" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1">
-      <c r="A32" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A33" s="26"/>
-      <c r="B33" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="20"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="26"/>
-      <c r="B35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:8" ht="31.9" customHeight="1">
-      <c r="A36" s="26"/>
-      <c r="B36" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="26"/>
-      <c r="B37" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" ht="30.6" customHeight="1">
       <c r="A38" s="2" t="s">
@@ -1251,81 +1260,57 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1">
       <c r="A40" s="3">
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="F40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1">
       <c r="A41" s="3"/>
-      <c r="B41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1">
       <c r="A42" s="3"/>
-      <c r="B42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8">
@@ -1360,6 +1345,76 @@
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:H37"/>
     <mergeCell ref="A39:H39"/>
@@ -1376,76 +1431,6 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:H36"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
